--- a/public/correlativas/correlativas-redes.xlsx
+++ b/public/correlativas/correlativas-redes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waide\Documents\isippweb\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waide\Downloads\isippweb\public\correlativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF15FB9-0F4B-46E0-9B87-8D2FDA89E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28EB3D0-B4D8-497E-8F8E-65F6FAF7550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4BAE203-F789-4D7C-9B4B-0125AC09DE74}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Materia</t>
   </si>
   <si>
-    <t>Correlativas</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -45,63 +42,24 @@
     <t>Matematicas</t>
   </si>
   <si>
-    <t>Ingles</t>
-  </si>
-  <si>
     <t>Filosofia</t>
   </si>
   <si>
-    <t>Diagramacion y metodo</t>
-  </si>
-  <si>
-    <t>Sistema de computacion</t>
-  </si>
-  <si>
     <t>cuatrimestral</t>
   </si>
   <si>
-    <t>Sistema operativo</t>
-  </si>
-  <si>
-    <t>Analisis matematico</t>
-  </si>
-  <si>
     <t>Cuatrimestre</t>
   </si>
   <si>
-    <t>desarrollo de aplicaciones</t>
-  </si>
-  <si>
-    <t>lenguaje de programacion</t>
-  </si>
-  <si>
     <t>Redes y Comunicación</t>
   </si>
   <si>
     <t>Organización contable</t>
   </si>
   <si>
-    <t>Base de datos</t>
-  </si>
-  <si>
-    <t>Desarrollo dis. Imp</t>
-  </si>
-  <si>
-    <t>Orquestacion</t>
-  </si>
-  <si>
     <t>Metodo Numerico</t>
   </si>
   <si>
-    <t>Ingles,Diagramacion y metodo,Sistema operativo</t>
-  </si>
-  <si>
-    <t>desarrollo de aplicaciones. lenguaje de programacion, Redes y Comunicación</t>
-  </si>
-  <si>
-    <t>desarrollo de aplicaciones. lenguaje de programacion,Redes y Comunicación</t>
-  </si>
-  <si>
     <t>Practicas Profesionalizantes</t>
   </si>
   <si>
@@ -133,6 +91,57 @@
   </si>
   <si>
     <t>Matematicas Financiera</t>
+  </si>
+  <si>
+    <t>Regularizado</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Sistema Operativos y Herramientas de Productividad</t>
+  </si>
+  <si>
+    <t>Analisis Matematico</t>
+  </si>
+  <si>
+    <t>Desarrollo de Aplicaciones</t>
+  </si>
+  <si>
+    <t>Ingles Tecnico</t>
+  </si>
+  <si>
+    <t>Ingles Tecnico,Diagramacion y Metodo,Sistema Operativos y Herramientas de Productividad</t>
+  </si>
+  <si>
+    <t>Lenguaje de Programacion</t>
+  </si>
+  <si>
+    <t>Base de Datos y Tecnicas de Programacion</t>
+  </si>
+  <si>
+    <t>Desarrollo, Diseño e Implementacion de Aplicaciones Informaticas</t>
+  </si>
+  <si>
+    <t>Orquestacion de Aplicaciones Informaticas</t>
+  </si>
+  <si>
+    <t>Analisis de Sistemas</t>
+  </si>
+  <si>
+    <t>Organizacion Y Contabilidad, Bases de Datos Y Tecnicas de Programacion, Desarrollo, Diseño e Implementacion de Aplicaciones Informaticas, Orquestacion de Aplicaciones Informaticas</t>
+  </si>
+  <si>
+    <t>Filosofia de la Ciencia Y la Tecnica, Desarrollo de Aplicaciones, Lenguajes de Programacion, Redes y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Diagramacion y Metodo</t>
+  </si>
+  <si>
+    <t>Sistema de Computacion</t>
+  </si>
+  <si>
+    <t>Desarrollo de Aplicaciones, Lenguaje de Programacion, Redes y Comunicación</t>
   </si>
 </sst>
 </file>
@@ -507,399 +516,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8797EBF6-7923-4D57-B0C7-DD747A145575}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
